--- a/Mean return of each stage of each ETF.xlsx
+++ b/Mean return of each stage of each ETF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Self-Learning\Columbia Fintech BootsCamp\Online Modules\Project_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30D566C-E3E1-470E-B150-9ECA2BE5F0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009F2E2D-A2C0-4F50-B272-95187124662D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="2280" windowWidth="17730" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12495" yWindow="1380" windowWidth="17730" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Overheat</t>
   </si>
@@ -67,16 +67,108 @@
   </si>
   <si>
     <t>AGG, IDU, IYF</t>
+  </si>
+  <si>
+    <t>Energy, Tech, Utility</t>
+  </si>
+  <si>
+    <t>Real Estate, Financial, Bond</t>
+  </si>
+  <si>
+    <t>Real Estate, Utility, Financial</t>
+  </si>
+  <si>
+    <t>Communication, Energy, Materials</t>
+  </si>
+  <si>
+    <t>Tech, Consumer Discretionary, Healthcare</t>
+  </si>
+  <si>
+    <t>Energy, Communication, Bond</t>
+  </si>
+  <si>
+    <t>Bond, Utility, Financials</t>
+  </si>
+  <si>
+    <t>Energy, Materials, Tech</t>
+  </si>
+  <si>
+    <t>IYE</t>
+  </si>
+  <si>
+    <t>IYW</t>
+  </si>
+  <si>
+    <t>IDU</t>
+  </si>
+  <si>
+    <t>IYR</t>
+  </si>
+  <si>
+    <t>IYF</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>IYZ</t>
+  </si>
+  <si>
+    <t>IYM</t>
+  </si>
+  <si>
+    <t>IYC</t>
+  </si>
+  <si>
+    <t>IYH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,8 +194,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,17 +481,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -449,7 +546,115 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mean return of each stage of each ETF.xlsx
+++ b/Mean return of each stage of each ETF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Self-Learning\Columbia Fintech BootsCamp\Online Modules\Project_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Self-Learning\Columbia Fintech BootsCamp\Project_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009F2E2D-A2C0-4F50-B272-95187124662D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A852900-4DDF-4684-A55C-14857B398FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12495" yWindow="1380" windowWidth="17730" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18480" yWindow="420" windowWidth="20040" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,13 +194,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +488,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,54 +499,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -565,36 +569,36 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="9" t="s">
         <v>20</v>
       </c>
     </row>
